--- a/备课进度2018.xlsx
+++ b/备课进度2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>边界值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,10 @@
   <si>
     <t>删除，关于P15拆条件
 把5.1最后一图拿过来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0823</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,74 +421,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -782,17 +718,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="4" max="4" width="30" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1"/>
     <col min="10" max="10" width="21" customWidth="1"/>
@@ -1023,7 +959,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1037,7 +973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="54" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1068,6 +1004,9 @@
     <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>

--- a/备课进度2018.xlsx
+++ b/备课进度2018.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
   <si>
     <t>边界值</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -352,6 +352,14 @@
   </si>
   <si>
     <t>0823</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>‘0829</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单元测试例子，C++修改成Java（李焕贞）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,6 +429,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -437,7 +513,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -719,7 +795,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -731,7 +807,7 @@
     <col min="6" max="6" width="7.5" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="6.125" customWidth="1"/>
     <col min="8" max="8" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="10" max="10" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
@@ -1040,10 +1116,13 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
@@ -1051,7 +1130,10 @@
         <v>71</v>
       </c>
       <c r="I22" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="J22" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.15">
